--- a/output/Nexus-Book1.xlsx
+++ b/output/Nexus-Book1.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive-Backup\Documents\GitHub\Project3\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive-Backup\Documents\GitHub\gns3-project2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F678DD94-F71C-41ED-A187-89B646C2DC63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C18742F-3AE6-4A78-8492-2062B756B026}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B50DB2F1-F6F8-418F-BE1A-BC6B288CFB1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B50DB2F1-F6F8-418F-BE1A-BC6B288CFB1A}"/>
   </bookViews>
   <sheets>
     <sheet name="scrap" sheetId="1" r:id="rId1"/>
     <sheet name="Template" sheetId="2" r:id="rId2"/>
+    <sheet name="add-to-2949" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
@@ -68,30 +68,30 @@
     <definedName name="AnchorMWDCwlc4">#REF!</definedName>
     <definedName name="AnchorMWDCwlc4TS">#REF!</definedName>
     <definedName name="avg_flr_sqft">#REF!</definedName>
-    <definedName name="ff">[2]Lookups!$A$2:$A$6</definedName>
+    <definedName name="ff">[1]Lookups!$A$2:$A$6</definedName>
     <definedName name="FinalAPCount">#REF!</definedName>
-    <definedName name="floors">'[3]RNI Instructions'!$F$25</definedName>
+    <definedName name="floors">'[2]RNI Instructions'!$F$25</definedName>
     <definedName name="foreignwlc1">#REF!</definedName>
     <definedName name="foreignwlc2">#REF!</definedName>
-    <definedName name="gg">[2]Lookups!$A$2:$A$6</definedName>
-    <definedName name="hf">[2]Lookups!$F$2:$F$4</definedName>
-    <definedName name="HubSpoke">[4]Lookups!#REF!</definedName>
-    <definedName name="jk">[2]Lookups!$F$2:$F$4</definedName>
-    <definedName name="kl">[2]Lookups!$E$2:$E$6</definedName>
+    <definedName name="gg">[1]Lookups!$A$2:$A$6</definedName>
+    <definedName name="hf">[1]Lookups!$F$2:$F$4</definedName>
+    <definedName name="HubSpoke">[3]Lookups!#REF!</definedName>
+    <definedName name="jk">[1]Lookups!$F$2:$F$4</definedName>
+    <definedName name="kl">[1]Lookups!$E$2:$E$6</definedName>
     <definedName name="list">#REF!</definedName>
-    <definedName name="list2">'[5]3. Wireless RF Survey'!$AJ$19:$AJ$20</definedName>
-    <definedName name="Mcast">[4]Lookups!$E$2:$E$6</definedName>
-    <definedName name="mm">[2]Lookups!$B$2:$B$3</definedName>
-    <definedName name="nn">[2]Lookups!$D$2:$D$4</definedName>
+    <definedName name="list2">'[4]3. Wireless RF Survey'!$AJ$19:$AJ$20</definedName>
+    <definedName name="Mcast">[3]Lookups!$E$2:$E$6</definedName>
+    <definedName name="mm">[1]Lookups!$B$2:$B$3</definedName>
+    <definedName name="nn">[1]Lookups!$D$2:$D$4</definedName>
     <definedName name="no_APs">#REF!</definedName>
     <definedName name="no_flrs">#REF!</definedName>
     <definedName name="NPMS_Project">#REF!</definedName>
-    <definedName name="pp">[2]Lookups!$C$2:$C$22</definedName>
-    <definedName name="pq">[2]Lookups!$C$2:$C$22</definedName>
+    <definedName name="pp">[1]Lookups!$C$2:$C$22</definedName>
+    <definedName name="pq">[1]Lookups!$C$2:$C$22</definedName>
     <definedName name="ProposedAPCount">#REF!</definedName>
-    <definedName name="Region">[4]Lookups!$A$2:$A$6</definedName>
-    <definedName name="RTExport">[4]Lookups!#REF!</definedName>
-    <definedName name="RTImport">[4]Lookups!#REF!</definedName>
+    <definedName name="Region">[3]Lookups!$A$2:$A$6</definedName>
+    <definedName name="RTExport">[3]Lookups!#REF!</definedName>
+    <definedName name="RTImport">[3]Lookups!#REF!</definedName>
     <definedName name="s">#REF!</definedName>
     <definedName name="SiteAddress">#REF!</definedName>
     <definedName name="SiteContactEmail">#REF!</definedName>
@@ -167,24 +167,24 @@
     <definedName name="SiteLBCode">#REF!</definedName>
     <definedName name="SiteName">#REF!</definedName>
     <definedName name="SiteREMS">#REF!</definedName>
-    <definedName name="SiteType">[4]Lookups!$B$2:$B$3</definedName>
+    <definedName name="SiteType">[3]Lookups!$B$2:$B$3</definedName>
     <definedName name="Temp">#REF!</definedName>
-    <definedName name="Template">[6]BOM!#REF!</definedName>
-    <definedName name="Template_10">[7]BOM!#REF!</definedName>
-    <definedName name="Template_4">[7]BOM!#REF!</definedName>
-    <definedName name="Template_9">[7]BOM!#REF!</definedName>
-    <definedName name="Template2">[8]BOM!#REF!</definedName>
+    <definedName name="Template">[5]BOM!#REF!</definedName>
+    <definedName name="Template_10">[6]BOM!#REF!</definedName>
+    <definedName name="Template_4">[6]BOM!#REF!</definedName>
+    <definedName name="Template_9">[6]BOM!#REF!</definedName>
+    <definedName name="Template2">[7]BOM!#REF!</definedName>
     <definedName name="Template2_4">NA()</definedName>
     <definedName name="Template2_9">NA()</definedName>
-    <definedName name="TestLine">[9]RegexpTester!$A$2</definedName>
-    <definedName name="VPNName">[4]Lookups!$C$2:$C$22</definedName>
-    <definedName name="VPNRouting">[4]Lookups!#REF!</definedName>
-    <definedName name="VPNType">[4]Lookups!$D$2:$D$4</definedName>
+    <definedName name="TestLine">[8]RegexpTester!$A$2</definedName>
+    <definedName name="VPNName">[3]Lookups!$C$2:$C$22</definedName>
+    <definedName name="VPNRouting">[3]Lookups!#REF!</definedName>
+    <definedName name="VPNType">[3]Lookups!$D$2:$D$4</definedName>
     <definedName name="wrn.PT_PT._.Detail." hidden="1">{"View1",#N/A,FALSE,"Cititrack"}</definedName>
     <definedName name="wrn1.PT_PT._.Detail." hidden="1">{"View1",#N/A,FALSE,"Cititrack"}</definedName>
     <definedName name="y" hidden="1">{"View1",#N/A,FALSE,"Cititrack"}</definedName>
-    <definedName name="YesNo">[4]Lookups!$F$2:$F$4</definedName>
-    <definedName name="zz">[2]Lookups!$B$2:$B$3</definedName>
+    <definedName name="YesNo">[3]Lookups!$F$2:$F$4</definedName>
+    <definedName name="zz">[1]Lookups!$B$2:$B$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7343" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7583" uniqueCount="718">
   <si>
     <t>R1.cfg</t>
   </si>
@@ -2157,12 +2157,6 @@
     <t>suppress-arp</t>
   </si>
   <si>
-    <t>fabric forwarding anycast-gateway-mac</t>
-  </si>
-  <si>
-    <t>0001.0001.0001</t>
-  </si>
-  <si>
     <t>interface Vlan100</t>
   </si>
   <si>
@@ -2334,18 +2328,12 @@
     <t>router-id 192.168.10.10</t>
   </si>
   <si>
-    <t>neighbor 192.168.1.1</t>
-  </si>
-  <si>
     <t>send-community both</t>
   </si>
   <si>
     <t>route-reflector-client</t>
   </si>
   <si>
-    <t>neighbor 192.168.2.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">route-reflector-client </t>
   </si>
   <si>
@@ -2362,6 +2350,15 @@
   </si>
   <si>
     <t>feature vn-segment-vlan-based  !!MAP VLAN to VNI -Leaf Ony</t>
+  </si>
+  <si>
+    <t>fabric forwarding anycast-gateway-mac 0001.0001.0001</t>
+  </si>
+  <si>
+    <t>neighbor 192.168.1.1 remote-as 100</t>
+  </si>
+  <si>
+    <t>neighbor 192.168.2.2 remote-as 100</t>
   </si>
 </sst>
 </file>
@@ -2423,7 +2420,68 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2573,34 +2631,144 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Verification Loader"/>
-      <sheetName val="Pre-Verification"/>
-      <sheetName val="Post-Verification"/>
-      <sheetName val="Pre_Post_Side-by-Side"/>
-      <sheetName val="WriteLog"/>
-      <sheetName val="Notes"/>
-      <sheetName val="More Tools"/>
-      <sheetName val="Styles"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>369915</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>27775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB9C9A5-2447-40B3-9F71-05DB7ADA4325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13525500" y="295275"/>
+          <a:ext cx="12476190" cy="6400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361371</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CCD284-CA0C-477B-8434-78957F18C911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14049375" y="0"/>
+          <a:ext cx="4628571" cy="257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>512851</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>8680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EFBC5B-23FB-416F-8847-5BB67F24A0F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13554075" y="6962775"/>
+          <a:ext cx="11980952" cy="6761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2769,7 +2937,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2852,7 +3020,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3027,7 +3195,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3073,7 +3241,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3134,7 +3302,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3197,7 +3365,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3252,7 +3420,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -26913,8 +27081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97243F9-DA20-4410-8E11-6EC54C45E13F}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26931,7 +27099,7 @@
         <v>631</v>
       </c>
       <c r="C1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>632</v>
@@ -26939,7 +27107,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B3" t="s">
         <v>633</v>
@@ -26950,7 +27118,7 @@
         <v>634</v>
       </c>
       <c r="G4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -26965,17 +27133,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -26985,7 +27153,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -26993,13 +27161,13 @@
         <v>636</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -27015,13 +27183,13 @@
         <v>638</v>
       </c>
       <c r="D15" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -27029,13 +27197,13 @@
         <v>639</v>
       </c>
       <c r="D16" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F16" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -27046,10 +27214,10 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -27057,10 +27225,10 @@
         <v>640</v>
       </c>
       <c r="D18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F18" t="s">
         <v>30</v>
@@ -27071,13 +27239,13 @@
         <v>641</v>
       </c>
       <c r="D19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F19" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -27085,13 +27253,13 @@
         <v>642</v>
       </c>
       <c r="D20" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E20" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F20" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -27099,13 +27267,13 @@
         <v>643</v>
       </c>
       <c r="D21" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -27113,13 +27281,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -27127,13 +27295,13 @@
         <v>285</v>
       </c>
       <c r="D23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E23" t="s">
         <v>538</v>
       </c>
       <c r="F23" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -27141,13 +27309,13 @@
         <v>644</v>
       </c>
       <c r="D24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E24" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F24" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -27155,10 +27323,10 @@
         <v>645</v>
       </c>
       <c r="D25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -27169,10 +27337,10 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F26" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -27180,13 +27348,13 @@
         <v>647</v>
       </c>
       <c r="D27" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E27" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F27" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -27196,8 +27364,8 @@
       <c r="D28" t="s">
         <v>644</v>
       </c>
-      <c r="F28" t="s">
-        <v>656</v>
+      <c r="F28" s="2" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -27205,66 +27373,63 @@
         <v>649</v>
       </c>
       <c r="D29" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E29" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E30" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F30" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>650</v>
+        <v>715</v>
       </c>
       <c r="D31" t="s">
         <v>285</v>
       </c>
       <c r="E31" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F31" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>651</v>
-      </c>
       <c r="D32" t="s">
         <v>644</v>
       </c>
       <c r="E32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D33" t="s">
         <v>645</v>
       </c>
       <c r="E33" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F33" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -27275,43 +27440,40 @@
         <v>646</v>
       </c>
       <c r="E34" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F34" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D35" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F35" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D36" t="s">
         <v>30</v>
       </c>
-      <c r="F36" t="s">
-        <v>711</v>
-      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D37" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F37" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -27319,106 +27481,1089 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D39" t="s">
+        <v>678</v>
+      </c>
+      <c r="F39" t="s">
         <v>656</v>
-      </c>
-      <c r="D39" t="s">
-        <v>680</v>
-      </c>
-      <c r="F39" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>658</v>
-      </c>
-      <c r="D41" t="s">
         <v>656</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>654</v>
+      </c>
       <c r="F41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D42" t="s">
-        <v>663</v>
-      </c>
-      <c r="F42" t="s">
-        <v>713</v>
+        <v>661</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D43" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D44" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D45" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:F33 B34:E36 F34:F35 B37:F37 B43:F1048576 B38:E42 F38:F41">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="loop">
+      <formula>NOT(ISERROR(SEARCH("loop",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.ciscolive.com/c/dam/r/ciscolive/apjc/docs/2018/pdf/BRKDCN-3040.pdf" xr:uid="{908D56C4-A31D-4223-AEC4-FA4F51EBA9BC}"/>
     <hyperlink ref="G1" r:id="rId2" xr:uid="{1C0C2022-61D0-40E5-80A5-2F8B14C3868A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C495A54-CA1D-4ACD-BABD-265EE90B4B22}">
+  <dimension ref="A1:I117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" customWidth="1"/>
+    <col min="8" max="8" width="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E1" t="s">
+        <v>710</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>634</v>
+      </c>
+      <c r="I4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F13" t="s">
+        <v>696</v>
+      </c>
+      <c r="H13" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>637</v>
+      </c>
+      <c r="D14" t="s">
+        <v>637</v>
+      </c>
+      <c r="F14" t="s">
+        <v>538</v>
+      </c>
+      <c r="H14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>638</v>
+      </c>
+      <c r="D15" t="s">
+        <v>638</v>
+      </c>
+      <c r="F15" t="s">
+        <v>697</v>
+      </c>
+      <c r="H15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D16" t="s">
+        <v>639</v>
+      </c>
+      <c r="F16" t="s">
+        <v>690</v>
+      </c>
+      <c r="H16" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>618</v>
+      </c>
+      <c r="D17" t="s">
+        <v>618</v>
+      </c>
+      <c r="F17" t="s">
+        <v>691</v>
+      </c>
+      <c r="H17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>640</v>
+      </c>
+      <c r="D18" t="s">
+        <v>640</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>641</v>
+      </c>
+      <c r="D19" t="s">
+        <v>641</v>
+      </c>
+      <c r="F19" t="s">
+        <v>698</v>
+      </c>
+      <c r="H19" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>642</v>
+      </c>
+      <c r="D20" t="s">
+        <v>642</v>
+      </c>
+      <c r="F20" t="s">
+        <v>699</v>
+      </c>
+      <c r="H20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>643</v>
+      </c>
+      <c r="D21" t="s">
+        <v>643</v>
+      </c>
+      <c r="F21" t="s">
+        <v>700</v>
+      </c>
+      <c r="H21" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>701</v>
+      </c>
+      <c r="H22" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" t="s">
+        <v>702</v>
+      </c>
+      <c r="H23" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>644</v>
+      </c>
+      <c r="D24" t="s">
+        <v>644</v>
+      </c>
+      <c r="F24" t="s">
+        <v>703</v>
+      </c>
+      <c r="H24" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>645</v>
+      </c>
+      <c r="D25" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>646</v>
+      </c>
+      <c r="D26" t="s">
+        <v>646</v>
+      </c>
+      <c r="F26" t="s">
+        <v>704</v>
+      </c>
+      <c r="H26" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>647</v>
+      </c>
+      <c r="D27" t="s">
+        <v>647</v>
+      </c>
+      <c r="F27" t="s">
+        <v>705</v>
+      </c>
+      <c r="H27" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>648</v>
+      </c>
+      <c r="D28" t="s">
+        <v>648</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>649</v>
+      </c>
+      <c r="D29" t="s">
+        <v>649</v>
+      </c>
+      <c r="F29" t="s">
+        <v>706</v>
+      </c>
+      <c r="H29" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>656</v>
+      </c>
+      <c r="H30" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>715</v>
+      </c>
+      <c r="D31" t="s">
+        <v>715</v>
+      </c>
+      <c r="F31" t="s">
+        <v>716</v>
+      </c>
+      <c r="H31" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>659</v>
+      </c>
+      <c r="H32" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>650</v>
+      </c>
+      <c r="D33" t="s">
+        <v>650</v>
+      </c>
+      <c r="F33" t="s">
+        <v>656</v>
+      </c>
+      <c r="H33" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>644</v>
+      </c>
+      <c r="D34" t="s">
+        <v>644</v>
+      </c>
+      <c r="F34" t="s">
+        <v>707</v>
+      </c>
+      <c r="H34" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>651</v>
+      </c>
+      <c r="D35" t="s">
+        <v>651</v>
+      </c>
+      <c r="F35" t="s">
+        <v>708</v>
+      </c>
+      <c r="H35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>652</v>
+      </c>
+      <c r="D36" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>653</v>
+      </c>
+      <c r="D37" t="s">
+        <v>653</v>
+      </c>
+      <c r="F37" t="s">
+        <v>717</v>
+      </c>
+      <c r="H37" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>659</v>
+      </c>
+      <c r="H38" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F39" t="s">
+        <v>656</v>
+      </c>
+      <c r="H39" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>655</v>
+      </c>
+      <c r="D40" t="s">
+        <v>655</v>
+      </c>
+      <c r="F40" t="s">
+        <v>707</v>
+      </c>
+      <c r="H40" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>656</v>
+      </c>
+      <c r="D41" t="s">
+        <v>656</v>
+      </c>
+      <c r="F41" t="s">
+        <v>709</v>
+      </c>
+      <c r="H41" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>657</v>
+      </c>
+      <c r="D42" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>658</v>
+      </c>
+      <c r="D43" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>659</v>
+      </c>
+      <c r="D44" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>656</v>
+      </c>
+      <c r="D45" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>660</v>
+      </c>
+      <c r="D46" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>661</v>
+      </c>
+      <c r="D47" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>662</v>
+      </c>
+      <c r="D48" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>663</v>
+      </c>
+      <c r="D49" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>665</v>
+      </c>
+      <c r="D60" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>666</v>
+      </c>
+      <c r="D61" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>667</v>
+      </c>
+      <c r="D63" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>668</v>
+      </c>
+      <c r="D64" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>669</v>
+      </c>
+      <c r="D65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>662</v>
+      </c>
+      <c r="D66" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>670</v>
+      </c>
+      <c r="D67" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>671</v>
+      </c>
+      <c r="D68" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>672</v>
+      </c>
+      <c r="D69" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>673</v>
+      </c>
+      <c r="D70" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>674</v>
+      </c>
+      <c r="D72" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>644</v>
+      </c>
+      <c r="D73" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>651</v>
+      </c>
+      <c r="D74" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>675</v>
+      </c>
+      <c r="D75" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>644</v>
+      </c>
+      <c r="D77" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>645</v>
+      </c>
+      <c r="D78" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>646</v>
+      </c>
+      <c r="D79" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>676</v>
+      </c>
+      <c r="D80" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>677</v>
+      </c>
+      <c r="D82" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>651</v>
+      </c>
+      <c r="D83" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>678</v>
+      </c>
+      <c r="D84" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>661</v>
+      </c>
+      <c r="D87" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>662</v>
+      </c>
+      <c r="D88" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>679</v>
+      </c>
+      <c r="D89" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>663</v>
+      </c>
+      <c r="D90" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>681</v>
+      </c>
+      <c r="D98" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>682</v>
+      </c>
+      <c r="D99" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>683</v>
+      </c>
+      <c r="D100" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>684</v>
+      </c>
+      <c r="D101" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>685</v>
+      </c>
+      <c r="D102" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>686</v>
+      </c>
+      <c r="D103" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>687</v>
+      </c>
+      <c r="D104" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>538</v>
+      </c>
+      <c r="D106" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>688</v>
+      </c>
+      <c r="D107" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>689</v>
+      </c>
+      <c r="D108" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>690</v>
+      </c>
+      <c r="D109" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>691</v>
+      </c>
+      <c r="D110" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>692</v>
+      </c>
+      <c r="D112" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>693</v>
+      </c>
+      <c r="D113" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>694</v>
+      </c>
+      <c r="D114" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>695</v>
+      </c>
+      <c r="D115" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>690</v>
+      </c>
+      <c r="D116" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>691</v>
+      </c>
+      <c r="D117" t="s">
+        <v>691</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:D11 H12:H35 H37:H41 F42:G42 B120:D1048576 B12:C119 F43:H1048576 F1:H11">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="loop">
+      <formula>NOT(ISERROR(SEARCH("loop",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:G35 F37:G41">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="loop">
+      <formula>NOT(ISERROR(SEARCH("loop",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D119">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="loop">
+      <formula>NOT(ISERROR(SEARCH("loop",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="loop">
+      <formula>NOT(ISERROR(SEARCH("loop",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.ciscolive.com/c/dam/r/ciscolive/apjc/docs/2018/pdf/BRKDCN-3040.pdf" xr:uid="{C246DA6B-6922-4EFF-A3D8-48E9610F2855}"/>
+    <hyperlink ref="I1" r:id="rId2" xr:uid="{9E2184D5-845E-4654-AF5F-9FD8158BA11B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>